--- a/testdata/contactusdata.xlsx
+++ b/testdata/contactusdata.xlsx
@@ -1,110 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\PycharmProjects\seleniumpractiseproject\testdata\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
-  <si>
-    <t>fullname</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>how u knew</t>
-  </si>
-  <si>
-    <t>message</t>
-  </si>
-  <si>
-    <t>result</t>
-  </si>
-  <si>
-    <t>prajay</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>suman@gmail.com</t>
-  </si>
-  <si>
-    <t>hello there</t>
-  </si>
-  <si>
-    <t>suman</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>Suman@mhdj.com</t>
-  </si>
-  <si>
-    <t>Hello hi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hello </t>
-  </si>
-  <si>
-    <t>prajay1</t>
-  </si>
-  <si>
-    <t>Webo</t>
-  </si>
-  <si>
-    <t>xyz@gmail.com</t>
-  </si>
-  <si>
-    <t>have good night</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="10"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -124,23 +55,82 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -430,123 +420,193 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col width="17.140625" customWidth="1" min="3" max="3"/>
+    <col width="12.5703125" customWidth="1" min="4" max="4"/>
+    <col width="11.85546875" customWidth="1" min="5" max="5"/>
+    <col width="17.140625" customWidth="1" min="6" max="6"/>
+    <col width="15.7109375" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>fullname</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>company</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>phone</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>how u knew</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>message</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>prajay</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>suman@gmail.com</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>980484949</v>
+      </c>
+      <c r="E2" t="n">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>hello there</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>TEST PASSED</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>suman</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>Suman@mhdj.com</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>980546366</v>
+      </c>
+      <c r="E3" t="n">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Hello hi</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>TEST PASSED</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>prajay</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>suman@gmail.com</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>9807484838256</v>
+      </c>
+      <c r="E4" t="n">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hello </t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>TEST FAILED</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>prajay1</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Webo</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>xyz@gmail.com</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>8978244472</v>
+      </c>
+      <c r="E5" t="n">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2">
-        <v>980484949</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3">
-        <v>980546366</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4">
-        <v>9807484838256</v>
-      </c>
-      <c r="E4">
-        <v>5</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5">
-        <v>8978244472</v>
-      </c>
-      <c r="E5">
-        <v>7</v>
-      </c>
-      <c r="F5" t="s">
-        <v>19</v>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>have good night</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>TEST FAILED</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/testdata/contactusdata.xlsx
+++ b/testdata/contactusdata.xlsx
@@ -1,41 +1,122 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\PycharmProjects\seleniumpractiseproject\testdata\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+  <si>
+    <t>fullname</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>how u knew</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> final test</t>
+  </si>
+  <si>
+    <t>websystem</t>
+  </si>
+  <si>
+    <t>suman@gmail.com</t>
+  </si>
+  <si>
+    <t>hello there</t>
+  </si>
+  <si>
+    <t>TEST PASSED</t>
+  </si>
+  <si>
+    <t>suman_</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>Suman@mhdj.com</t>
+  </si>
+  <si>
+    <t>Hello hi</t>
+  </si>
+  <si>
+    <t>TEST FAILED</t>
+  </si>
+  <si>
+    <t>prajay</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hello </t>
+  </si>
+  <si>
+    <t>prajay1</t>
+  </si>
+  <si>
+    <t>Webo</t>
+  </si>
+  <si>
+    <t>xyz@gmail.com</t>
+  </si>
+  <si>
+    <t>have good night</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="10"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -55,82 +136,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,193 +442,135 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="17.140625" customWidth="1" min="3" max="3"/>
-    <col width="12.5703125" customWidth="1" min="4" max="4"/>
-    <col width="11.85546875" customWidth="1" min="5" max="5"/>
-    <col width="17.140625" customWidth="1" min="6" max="6"/>
-    <col width="15.7109375" customWidth="1" min="7" max="7"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>fullname</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>company</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>phone</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>how u knew</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>message</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>result</t>
-        </is>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>prajay</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>suman@gmail.com</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2">
         <v>980484949</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>hello there</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>TEST PASSED</t>
-        </is>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>suman</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t>Suman@mhdj.com</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3">
         <v>980546366</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>1</v>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Hello hi</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>TEST PASSED</t>
-        </is>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>prajay</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>suman@gmail.com</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4">
         <v>9807484838256</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>5</v>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">hello </t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>TEST FAILED</t>
-        </is>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>prajay1</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Webo</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>xyz@gmail.com</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5">
         <v>8978244472</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>7</v>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>have good night</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>TEST FAILED</t>
-        </is>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
